--- a/raw_data/nutrition/nutrition_all.xlsx
+++ b/raw_data/nutrition/nutrition_all.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28209"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mollywilson/github/kuni_fads/raw_data/nutrition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margaretwilson/github/kuni_fads/raw_data/nutrition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56175A9B-034C-954E-AB10-ECD81156726F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="1960" windowWidth="26840" windowHeight="14440" activeTab="3" xr2:uid="{EB27D8C2-29FA-C94F-86B5-EAF238F6206C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -18,9 +17,15 @@
     <sheet name="fao_intake" sheetId="2" r:id="rId3"/>
     <sheet name="fao_fs_indicators" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5661" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5677" uniqueCount="199">
   <si>
     <t>Domain Code</t>
   </si>
@@ -590,12 +595,54 @@
   <si>
     <t>Prevalence of undernourishment (percent) (annual value)</t>
   </si>
+  <si>
+    <t>Genus intake</t>
+  </si>
+  <si>
+    <t>FAO intake</t>
+  </si>
+  <si>
+    <t>FAO food security indicators</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Average per capita intake of various vitamins/minerals, from all foods consumed and specifically from marine sources. Variable units/definitions can be found here:</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Average per capita intake of calories, protein, and fat from all foods consumed and specifically from marine sources.</t>
+  </si>
+  <si>
+    <t>Average per capitat energy supply adequacy and prevalence of undernourishment.</t>
+  </si>
+  <si>
+    <t>https://dataverse.harvard.edu/dataverse.xhtml?alias=GENuS</t>
+  </si>
+  <si>
+    <t>Harvard GENuS: 'Nutrient Supplies by Food and Country'</t>
+  </si>
+  <si>
+    <t>FAOSTAT</t>
+  </si>
+  <si>
+    <t>http://www.fao.org/faostat/en/#home</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -607,6 +654,22 @@
       <sz val="12"/>
       <color indexed="0"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -626,14 +689,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="top"/>
@@ -641,10 +705,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{70EC48D9-A0FF-0D4B-B526-6CBC32CEA434}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -955,23 +1022,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{560EC300-4D80-A64D-A02A-1250F12FB5FB}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="46.5" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2" location="home"/>
+    <hyperlink ref="D4" r:id="rId3" location="home"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8B7FD9-7AB5-984A-80C6-E12F2DC7D41B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DF28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AV1" sqref="AV1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9201,10 +9337,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3962F2BF-2275-264D-90F5-9401C8BD41E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N505"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -31437,10 +31575,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5B2313-7A9B-4A47-A6D0-AAC4521F664A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
